--- a/US/data/CBS/NFIB/Qualified Applicants for Job Openings.xlsx
+++ b/US/data/CBS/NFIB/Qualified Applicants for Job Openings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20386"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{868861A7-76E4-44F2-A6FD-B608EEBDE2EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{007D733F-6483-4D5F-B1B7-5D14D01FFC54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7050" yWindow="1575" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="18195" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="390">
   <si>
     <t>Month/Year</t>
   </si>
@@ -70,18 +70,21 @@
     <t>1993/11/1</t>
   </si>
   <si>
+    <t>1993/12/1</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>1994/1/1</t>
+  </si>
+  <si>
+    <t>1994/2/1</t>
+  </si>
+  <si>
     <t>37</t>
   </si>
   <si>
-    <t>1993/12/1</t>
-  </si>
-  <si>
-    <t>1994/1/1</t>
-  </si>
-  <si>
-    <t>1994/2/1</t>
-  </si>
-  <si>
     <t>1994/3/1</t>
   </si>
   <si>
@@ -118,138 +121,135 @@
     <t>1994/11/1</t>
   </si>
   <si>
+    <t>1994/12/1</t>
+  </si>
+  <si>
+    <t>1995/1/1</t>
+  </si>
+  <si>
+    <t>1995/2/1</t>
+  </si>
+  <si>
+    <t>1995/3/1</t>
+  </si>
+  <si>
+    <t>1995/4/1</t>
+  </si>
+  <si>
+    <t>1995/5/1</t>
+  </si>
+  <si>
+    <t>1995/6/1</t>
+  </si>
+  <si>
+    <t>1995/7/1</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>1995/8/1</t>
+  </si>
+  <si>
+    <t>1995/9/1</t>
+  </si>
+  <si>
+    <t>1995/10/1</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>1995/11/1</t>
+  </si>
+  <si>
+    <t>1995/12/1</t>
+  </si>
+  <si>
+    <t>1996/1/1</t>
+  </si>
+  <si>
+    <t>1996/2/1</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>1996/3/1</t>
+  </si>
+  <si>
+    <t>1996/4/1</t>
+  </si>
+  <si>
+    <t>1996/5/1</t>
+  </si>
+  <si>
+    <t>1996/6/1</t>
+  </si>
+  <si>
+    <t>1996/7/1</t>
+  </si>
+  <si>
     <t>44</t>
   </si>
   <si>
-    <t>1994/12/1</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>1995/1/1</t>
-  </si>
-  <si>
-    <t>1995/2/1</t>
-  </si>
-  <si>
-    <t>1995/3/1</t>
-  </si>
-  <si>
-    <t>1995/4/1</t>
-  </si>
-  <si>
-    <t>1995/5/1</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>1995/6/1</t>
-  </si>
-  <si>
-    <t>1995/7/1</t>
-  </si>
-  <si>
-    <t>1995/8/1</t>
-  </si>
-  <si>
-    <t>1995/9/1</t>
-  </si>
-  <si>
-    <t>1995/10/1</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>1995/11/1</t>
-  </si>
-  <si>
-    <t>1995/12/1</t>
+    <t>1996/8/1</t>
+  </si>
+  <si>
+    <t>1996/9/1</t>
+  </si>
+  <si>
+    <t>1996/10/1</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>1996/11/1</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>1996/12/1</t>
+  </si>
+  <si>
+    <t>1997/1/1</t>
+  </si>
+  <si>
+    <t>1997/2/1</t>
+  </si>
+  <si>
+    <t>1997/3/1</t>
+  </si>
+  <si>
+    <t>1997/4/1</t>
+  </si>
+  <si>
+    <t>1997/5/1</t>
+  </si>
+  <si>
+    <t>1997/6/1</t>
+  </si>
+  <si>
+    <t>1997/7/1</t>
+  </si>
+  <si>
+    <t>1997/8/1</t>
   </si>
   <si>
     <t>47</t>
   </si>
   <si>
-    <t>1996/1/1</t>
-  </si>
-  <si>
-    <t>1996/2/1</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>1996/3/1</t>
-  </si>
-  <si>
-    <t>1996/4/1</t>
-  </si>
-  <si>
-    <t>1996/5/1</t>
-  </si>
-  <si>
-    <t>1996/6/1</t>
-  </si>
-  <si>
-    <t>1996/7/1</t>
-  </si>
-  <si>
-    <t>1996/8/1</t>
-  </si>
-  <si>
-    <t>1996/9/1</t>
-  </si>
-  <si>
-    <t>1996/10/1</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>1996/11/1</t>
+    <t>1997/9/1</t>
+  </si>
+  <si>
+    <t>1997/10/1</t>
   </si>
   <si>
     <t>49</t>
   </si>
   <si>
-    <t>1996/12/1</t>
-  </si>
-  <si>
-    <t>1997/1/1</t>
-  </si>
-  <si>
-    <t>1997/2/1</t>
-  </si>
-  <si>
-    <t>1997/3/1</t>
-  </si>
-  <si>
-    <t>1997/4/1</t>
-  </si>
-  <si>
-    <t>1997/5/1</t>
-  </si>
-  <si>
-    <t>1997/6/1</t>
-  </si>
-  <si>
-    <t>1997/7/1</t>
-  </si>
-  <si>
-    <t>1997/8/1</t>
-  </si>
-  <si>
-    <t>1997/9/1</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>1997/10/1</t>
-  </si>
-  <si>
     <t>1997/11/1</t>
   </si>
   <si>
@@ -295,6 +295,9 @@
     <t>1998/11/1</t>
   </si>
   <si>
+    <t>52</t>
+  </si>
+  <si>
     <t>1998/12/1</t>
   </si>
   <si>
@@ -334,9 +337,6 @@
     <t>1999/11/1</t>
   </si>
   <si>
-    <t>52</t>
-  </si>
-  <si>
     <t>1999/12/1</t>
   </si>
   <si>
@@ -451,12 +451,12 @@
     <t>2002/12/1</t>
   </si>
   <si>
+    <t>35</t>
+  </si>
+  <si>
     <t>2003/1/1</t>
   </si>
   <si>
-    <t>35</t>
-  </si>
-  <si>
     <t>2003/2/1</t>
   </si>
   <si>
@@ -721,45 +721,48 @@
     <t>2009/11/1</t>
   </si>
   <si>
+    <t>2009/12/1</t>
+  </si>
+  <si>
+    <t>2010/1/1</t>
+  </si>
+  <si>
+    <t>2010/2/1</t>
+  </si>
+  <si>
+    <t>2010/3/1</t>
+  </si>
+  <si>
+    <t>2010/4/1</t>
+  </si>
+  <si>
+    <t>2010/5/1</t>
+  </si>
+  <si>
+    <t>2010/6/1</t>
+  </si>
+  <si>
+    <t>2010/7/1</t>
+  </si>
+  <si>
+    <t>2010/8/1</t>
+  </si>
+  <si>
+    <t>2010/9/1</t>
+  </si>
+  <si>
     <t>30</t>
   </si>
   <si>
-    <t>2009/12/1</t>
-  </si>
-  <si>
-    <t>2010/1/1</t>
-  </si>
-  <si>
-    <t>2010/2/1</t>
-  </si>
-  <si>
-    <t>2010/3/1</t>
-  </si>
-  <si>
-    <t>2010/4/1</t>
-  </si>
-  <si>
-    <t>2010/5/1</t>
-  </si>
-  <si>
-    <t>2010/6/1</t>
-  </si>
-  <si>
-    <t>2010/7/1</t>
-  </si>
-  <si>
-    <t>2010/8/1</t>
-  </si>
-  <si>
-    <t>2010/9/1</t>
-  </si>
-  <si>
     <t>2010/10/1</t>
   </si>
   <si>
     <t>2010/11/1</t>
   </si>
   <si>
+    <t>28</t>
+  </si>
+  <si>
     <t>2010/12/1</t>
   </si>
   <si>
@@ -778,9 +781,6 @@
     <t>2011/5/1</t>
   </si>
   <si>
-    <t>28</t>
-  </si>
-  <si>
     <t>2011/6/1</t>
   </si>
   <si>
@@ -1018,72 +1018,72 @@
     <t>2017/12/1</t>
   </si>
   <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>2018/1/1</t>
+  </si>
+  <si>
+    <t>2018/2/1</t>
+  </si>
+  <si>
+    <t>2018/3/1</t>
+  </si>
+  <si>
+    <t>2018/4/1</t>
+  </si>
+  <si>
+    <t>2018/5/1</t>
+  </si>
+  <si>
+    <t>2018/6/1</t>
+  </si>
+  <si>
+    <t>2018/7/1</t>
+  </si>
+  <si>
+    <t>2018/8/1</t>
+  </si>
+  <si>
+    <t>2018/9/1</t>
+  </si>
+  <si>
+    <t>2018/10/1</t>
+  </si>
+  <si>
+    <t>2018/11/1</t>
+  </si>
+  <si>
+    <t>2018/12/1</t>
+  </si>
+  <si>
+    <t>2019/1/1</t>
+  </si>
+  <si>
+    <t>2019/2/1</t>
+  </si>
+  <si>
+    <t>2019/3/1</t>
+  </si>
+  <si>
+    <t>2019/4/1</t>
+  </si>
+  <si>
+    <t>2019/5/1</t>
+  </si>
+  <si>
+    <t>2019/6/1</t>
+  </si>
+  <si>
+    <t>2019/7/1</t>
+  </si>
+  <si>
+    <t>2019/8/1</t>
+  </si>
+  <si>
     <t>56</t>
   </si>
   <si>
-    <t>2018/1/1</t>
-  </si>
-  <si>
-    <t>2018/2/1</t>
-  </si>
-  <si>
-    <t>2018/3/1</t>
-  </si>
-  <si>
-    <t>2018/4/1</t>
-  </si>
-  <si>
-    <t>2018/5/1</t>
-  </si>
-  <si>
-    <t>2018/6/1</t>
-  </si>
-  <si>
-    <t>2018/7/1</t>
-  </si>
-  <si>
-    <t>2018/8/1</t>
-  </si>
-  <si>
-    <t>2018/9/1</t>
-  </si>
-  <si>
-    <t>2018/10/1</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>2018/11/1</t>
-  </si>
-  <si>
-    <t>2018/12/1</t>
-  </si>
-  <si>
-    <t>2019/1/1</t>
-  </si>
-  <si>
-    <t>2019/2/1</t>
-  </si>
-  <si>
-    <t>2019/3/1</t>
-  </si>
-  <si>
-    <t>2019/4/1</t>
-  </si>
-  <si>
-    <t>2019/5/1</t>
-  </si>
-  <si>
-    <t>2019/6/1</t>
-  </si>
-  <si>
-    <t>2019/7/1</t>
-  </si>
-  <si>
-    <t>2019/8/1</t>
-  </si>
-  <si>
     <t>2019/9/1</t>
   </si>
   <si>
@@ -1159,16 +1159,37 @@
     <t>58</t>
   </si>
   <si>
+    <t>2021/9/1</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
     <t>2021/10/1</t>
   </si>
   <si>
     <t>60</t>
   </si>
   <si>
+    <t>2021/11/1</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
     <t>2021/12/1</t>
   </si>
   <si>
-    <t>59</t>
+    <t>2022/1/1</t>
+  </si>
+  <si>
+    <t>2022/2/1</t>
+  </si>
+  <si>
+    <t>2022/3/1</t>
+  </si>
+  <si>
+    <t>2022/4/1</t>
   </si>
 </sst>
 </file>
@@ -1568,7 +1589,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B344"/>
+  <dimension ref="A1:B350"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1649,15 +1670,15 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
         <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1673,20 +1694,20 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
         <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -1694,23 +1715,23 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -1718,34 +1739,34 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1753,52 +1774,52 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
         <v>13</v>
@@ -1806,210 +1827,210 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" t="s">
         <v>45</v>
-      </c>
-      <c r="B32" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" t="s">
         <v>60</v>
-      </c>
-      <c r="B44" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" t="s">
         <v>62</v>
-      </c>
-      <c r="B45" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B48" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B50" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B51" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B52" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B53" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>71</v>
+      </c>
+      <c r="B54" t="s">
         <v>72</v>
-      </c>
-      <c r="B54" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -2017,15 +2038,15 @@
         <v>73</v>
       </c>
       <c r="B55" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" t="s">
         <v>75</v>
-      </c>
-      <c r="B56" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -2033,7 +2054,7 @@
         <v>76</v>
       </c>
       <c r="B57" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -2041,7 +2062,7 @@
         <v>77</v>
       </c>
       <c r="B58" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -2049,7 +2070,7 @@
         <v>78</v>
       </c>
       <c r="B59" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -2057,7 +2078,7 @@
         <v>79</v>
       </c>
       <c r="B60" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -2073,7 +2094,7 @@
         <v>81</v>
       </c>
       <c r="B62" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -2081,7 +2102,7 @@
         <v>82</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -2089,7 +2110,7 @@
         <v>83</v>
       </c>
       <c r="B64" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -2097,7 +2118,7 @@
         <v>84</v>
       </c>
       <c r="B65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -2105,7 +2126,7 @@
         <v>85</v>
       </c>
       <c r="B66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -2129,92 +2150,92 @@
         <v>90</v>
       </c>
       <c r="B69" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>92</v>
+      </c>
+      <c r="B70" t="s">
         <v>91</v>
-      </c>
-      <c r="B70" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B73" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B74" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B75" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B76" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B77" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B78" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B79" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B80" t="s">
         <v>89</v>
@@ -2222,10 +2243,10 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B81" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -2233,7 +2254,7 @@
         <v>105</v>
       </c>
       <c r="B82" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -2241,7 +2262,7 @@
         <v>106</v>
       </c>
       <c r="B83" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -2249,7 +2270,7 @@
         <v>107</v>
       </c>
       <c r="B84" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -2257,7 +2278,7 @@
         <v>108</v>
       </c>
       <c r="B85" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -2265,7 +2286,7 @@
         <v>109</v>
       </c>
       <c r="B86" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -2273,7 +2294,7 @@
         <v>110</v>
       </c>
       <c r="B87" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -2281,7 +2302,7 @@
         <v>111</v>
       </c>
       <c r="B88" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -2289,7 +2310,7 @@
         <v>112</v>
       </c>
       <c r="B89" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -2297,7 +2318,7 @@
         <v>113</v>
       </c>
       <c r="B90" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -2305,7 +2326,7 @@
         <v>114</v>
       </c>
       <c r="B91" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -2313,7 +2334,7 @@
         <v>115</v>
       </c>
       <c r="B92" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -2321,7 +2342,7 @@
         <v>116</v>
       </c>
       <c r="B93" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -2329,7 +2350,7 @@
         <v>117</v>
       </c>
       <c r="B94" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -2337,7 +2358,7 @@
         <v>118</v>
       </c>
       <c r="B95" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -2345,7 +2366,7 @@
         <v>119</v>
       </c>
       <c r="B96" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -2353,7 +2374,7 @@
         <v>120</v>
       </c>
       <c r="B97" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -2361,7 +2382,7 @@
         <v>121</v>
       </c>
       <c r="B98" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -2369,7 +2390,7 @@
         <v>122</v>
       </c>
       <c r="B99" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -2377,7 +2398,7 @@
         <v>123</v>
       </c>
       <c r="B100" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -2385,7 +2406,7 @@
         <v>124</v>
       </c>
       <c r="B101" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -2393,7 +2414,7 @@
         <v>125</v>
       </c>
       <c r="B102" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -2401,7 +2422,7 @@
         <v>126</v>
       </c>
       <c r="B103" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -2409,7 +2430,7 @@
         <v>127</v>
       </c>
       <c r="B104" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -2417,7 +2438,7 @@
         <v>128</v>
       </c>
       <c r="B105" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -2425,7 +2446,7 @@
         <v>129</v>
       </c>
       <c r="B106" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -2441,7 +2462,7 @@
         <v>131</v>
       </c>
       <c r="B108" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -2449,7 +2470,7 @@
         <v>132</v>
       </c>
       <c r="B109" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -2457,7 +2478,7 @@
         <v>133</v>
       </c>
       <c r="B110" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -2473,7 +2494,7 @@
         <v>136</v>
       </c>
       <c r="B112" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -2481,7 +2502,7 @@
         <v>137</v>
       </c>
       <c r="B113" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -2489,7 +2510,7 @@
         <v>138</v>
       </c>
       <c r="B114" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -2497,7 +2518,7 @@
         <v>139</v>
       </c>
       <c r="B115" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -2505,7 +2526,7 @@
         <v>140</v>
       </c>
       <c r="B116" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -2513,7 +2534,7 @@
         <v>141</v>
       </c>
       <c r="B117" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -2521,15 +2542,15 @@
         <v>142</v>
       </c>
       <c r="B118" t="s">
-        <v>11</v>
+        <v>143</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>144</v>
+      </c>
+      <c r="B119" t="s">
         <v>143</v>
-      </c>
-      <c r="B119" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -2537,7 +2558,7 @@
         <v>145</v>
       </c>
       <c r="B120" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -2585,7 +2606,7 @@
         <v>153</v>
       </c>
       <c r="B126" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -2601,7 +2622,7 @@
         <v>155</v>
       </c>
       <c r="B128" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -2609,7 +2630,7 @@
         <v>156</v>
       </c>
       <c r="B129" t="s">
-        <v>11</v>
+        <v>143</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -2617,7 +2638,7 @@
         <v>157</v>
       </c>
       <c r="B130" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -2633,7 +2654,7 @@
         <v>159</v>
       </c>
       <c r="B132" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -2657,7 +2678,7 @@
         <v>162</v>
       </c>
       <c r="B135" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -2665,7 +2686,7 @@
         <v>163</v>
       </c>
       <c r="B136" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -2673,7 +2694,7 @@
         <v>164</v>
       </c>
       <c r="B137" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -2681,7 +2702,7 @@
         <v>165</v>
       </c>
       <c r="B138" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -2697,7 +2718,7 @@
         <v>167</v>
       </c>
       <c r="B140" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -2705,7 +2726,7 @@
         <v>168</v>
       </c>
       <c r="B141" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -2713,7 +2734,7 @@
         <v>169</v>
       </c>
       <c r="B142" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -2721,7 +2742,7 @@
         <v>170</v>
       </c>
       <c r="B143" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -2737,7 +2758,7 @@
         <v>172</v>
       </c>
       <c r="B145" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -2745,7 +2766,7 @@
         <v>173</v>
       </c>
       <c r="B146" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -2761,7 +2782,7 @@
         <v>175</v>
       </c>
       <c r="B148" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -2777,7 +2798,7 @@
         <v>177</v>
       </c>
       <c r="B150" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -2793,7 +2814,7 @@
         <v>179</v>
       </c>
       <c r="B152" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -2801,7 +2822,7 @@
         <v>180</v>
       </c>
       <c r="B153" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -2809,7 +2830,7 @@
         <v>181</v>
       </c>
       <c r="B154" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -2817,7 +2838,7 @@
         <v>182</v>
       </c>
       <c r="B155" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -2825,7 +2846,7 @@
         <v>183</v>
       </c>
       <c r="B156" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -2841,7 +2862,7 @@
         <v>185</v>
       </c>
       <c r="B158" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -2849,7 +2870,7 @@
         <v>186</v>
       </c>
       <c r="B159" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -2857,7 +2878,7 @@
         <v>187</v>
       </c>
       <c r="B160" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -2865,7 +2886,7 @@
         <v>188</v>
       </c>
       <c r="B161" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -2873,7 +2894,7 @@
         <v>189</v>
       </c>
       <c r="B162" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -2881,7 +2902,7 @@
         <v>190</v>
       </c>
       <c r="B163" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -2889,7 +2910,7 @@
         <v>191</v>
       </c>
       <c r="B164" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -2897,7 +2918,7 @@
         <v>192</v>
       </c>
       <c r="B165" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -2905,7 +2926,7 @@
         <v>193</v>
       </c>
       <c r="B166" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -2913,7 +2934,7 @@
         <v>194</v>
       </c>
       <c r="B167" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -2921,7 +2942,7 @@
         <v>195</v>
       </c>
       <c r="B168" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -2929,7 +2950,7 @@
         <v>196</v>
       </c>
       <c r="B169" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -2937,7 +2958,7 @@
         <v>197</v>
       </c>
       <c r="B170" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -2945,7 +2966,7 @@
         <v>198</v>
       </c>
       <c r="B171" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -2953,7 +2974,7 @@
         <v>199</v>
       </c>
       <c r="B172" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -2961,7 +2982,7 @@
         <v>200</v>
       </c>
       <c r="B173" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -2969,7 +2990,7 @@
         <v>201</v>
       </c>
       <c r="B174" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -2977,7 +2998,7 @@
         <v>202</v>
       </c>
       <c r="B175" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -2985,7 +3006,7 @@
         <v>203</v>
       </c>
       <c r="B176" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -2993,7 +3014,7 @@
         <v>204</v>
       </c>
       <c r="B177" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -3001,7 +3022,7 @@
         <v>205</v>
       </c>
       <c r="B178" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -3009,7 +3030,7 @@
         <v>206</v>
       </c>
       <c r="B179" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -3017,7 +3038,7 @@
         <v>207</v>
       </c>
       <c r="B180" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -3049,7 +3070,7 @@
         <v>211</v>
       </c>
       <c r="B184" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -3073,7 +3094,7 @@
         <v>214</v>
       </c>
       <c r="B187" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -3081,7 +3102,7 @@
         <v>215</v>
       </c>
       <c r="B188" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -3089,7 +3110,7 @@
         <v>216</v>
       </c>
       <c r="B189" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -3097,7 +3118,7 @@
         <v>217</v>
       </c>
       <c r="B190" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -3185,20 +3206,20 @@
         <v>232</v>
       </c>
       <c r="B201" t="s">
-        <v>233</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B202" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B203" t="s">
         <v>226</v>
@@ -3206,7 +3227,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B204" t="s">
         <v>7</v>
@@ -3214,7 +3235,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B205" t="s">
         <v>219</v>
@@ -3222,7 +3243,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B206" t="s">
         <v>226</v>
@@ -3230,7 +3251,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B207" t="s">
         <v>222</v>
@@ -3238,7 +3259,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B208" t="s">
         <v>219</v>
@@ -3246,7 +3267,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B209" t="s">
         <v>5</v>
@@ -3254,7 +3275,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B210" t="s">
         <v>9</v>
@@ -3262,10 +3283,10 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
+        <v>242</v>
+      </c>
+      <c r="B211" t="s">
         <v>243</v>
-      </c>
-      <c r="B211" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -3273,7 +3294,7 @@
         <v>244</v>
       </c>
       <c r="B212" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -3281,20 +3302,20 @@
         <v>245</v>
       </c>
       <c r="B213" t="s">
-        <v>3</v>
+        <v>246</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B214" t="s">
-        <v>233</v>
+        <v>3</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B215" t="s">
         <v>3</v>
@@ -3302,7 +3323,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B216" t="s">
         <v>9</v>
@@ -3310,7 +3331,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B217" t="s">
         <v>3</v>
@@ -3318,7 +3339,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B218" t="s">
         <v>9</v>
@@ -3326,10 +3347,10 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B219" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -3377,7 +3398,7 @@
         <v>258</v>
       </c>
       <c r="B225" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -3385,7 +3406,7 @@
         <v>259</v>
       </c>
       <c r="B226" t="s">
-        <v>11</v>
+        <v>143</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -3425,7 +3446,7 @@
         <v>264</v>
       </c>
       <c r="B231" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -3457,7 +3478,7 @@
         <v>268</v>
       </c>
       <c r="B235" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -3465,7 +3486,7 @@
         <v>269</v>
       </c>
       <c r="B236" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -3473,7 +3494,7 @@
         <v>270</v>
       </c>
       <c r="B237" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -3481,7 +3502,7 @@
         <v>271</v>
       </c>
       <c r="B238" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -3489,7 +3510,7 @@
         <v>272</v>
       </c>
       <c r="B239" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -3497,7 +3518,7 @@
         <v>273</v>
       </c>
       <c r="B240" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -3513,7 +3534,7 @@
         <v>275</v>
       </c>
       <c r="B242" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -3537,7 +3558,7 @@
         <v>278</v>
       </c>
       <c r="B245" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
@@ -3545,7 +3566,7 @@
         <v>279</v>
       </c>
       <c r="B246" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -3553,7 +3574,7 @@
         <v>280</v>
       </c>
       <c r="B247" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
@@ -3561,7 +3582,7 @@
         <v>281</v>
       </c>
       <c r="B248" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -3569,7 +3590,7 @@
         <v>282</v>
       </c>
       <c r="B249" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -3577,7 +3598,7 @@
         <v>283</v>
       </c>
       <c r="B250" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -3593,7 +3614,7 @@
         <v>285</v>
       </c>
       <c r="B252" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -3601,7 +3622,7 @@
         <v>286</v>
       </c>
       <c r="B253" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -3609,7 +3630,7 @@
         <v>287</v>
       </c>
       <c r="B254" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -3617,7 +3638,7 @@
         <v>288</v>
       </c>
       <c r="B255" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -3625,7 +3646,7 @@
         <v>289</v>
       </c>
       <c r="B256" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -3633,7 +3654,7 @@
         <v>290</v>
       </c>
       <c r="B257" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -3641,7 +3662,7 @@
         <v>291</v>
       </c>
       <c r="B258" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -3649,7 +3670,7 @@
         <v>292</v>
       </c>
       <c r="B259" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
@@ -3657,7 +3678,7 @@
         <v>293</v>
       </c>
       <c r="B260" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
@@ -3665,7 +3686,7 @@
         <v>294</v>
       </c>
       <c r="B261" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -3673,7 +3694,7 @@
         <v>295</v>
       </c>
       <c r="B262" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -3681,7 +3702,7 @@
         <v>296</v>
       </c>
       <c r="B263" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -3689,7 +3710,7 @@
         <v>297</v>
       </c>
       <c r="B264" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -3697,7 +3718,7 @@
         <v>298</v>
       </c>
       <c r="B265" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
@@ -3705,7 +3726,7 @@
         <v>299</v>
       </c>
       <c r="B266" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -3713,7 +3734,7 @@
         <v>300</v>
       </c>
       <c r="B267" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -3721,7 +3742,7 @@
         <v>301</v>
       </c>
       <c r="B268" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -3729,7 +3750,7 @@
         <v>302</v>
       </c>
       <c r="B269" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -3737,7 +3758,7 @@
         <v>303</v>
       </c>
       <c r="B270" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -3745,7 +3766,7 @@
         <v>304</v>
       </c>
       <c r="B271" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -3753,7 +3774,7 @@
         <v>305</v>
       </c>
       <c r="B272" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
@@ -3761,7 +3782,7 @@
         <v>306</v>
       </c>
       <c r="B273" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -3769,7 +3790,7 @@
         <v>307</v>
       </c>
       <c r="B274" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -3777,7 +3798,7 @@
         <v>308</v>
       </c>
       <c r="B275" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -3785,7 +3806,7 @@
         <v>309</v>
       </c>
       <c r="B276" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -3793,7 +3814,7 @@
         <v>310</v>
       </c>
       <c r="B277" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
@@ -3801,7 +3822,7 @@
         <v>311</v>
       </c>
       <c r="B278" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
@@ -3809,7 +3830,7 @@
         <v>312</v>
       </c>
       <c r="B279" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
@@ -3817,7 +3838,7 @@
         <v>313</v>
       </c>
       <c r="B280" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
@@ -3825,7 +3846,7 @@
         <v>314</v>
       </c>
       <c r="B281" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
@@ -3833,7 +3854,7 @@
         <v>315</v>
       </c>
       <c r="B282" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
@@ -3841,7 +3862,7 @@
         <v>316</v>
       </c>
       <c r="B283" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
@@ -3849,7 +3870,7 @@
         <v>317</v>
       </c>
       <c r="B284" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
@@ -3857,7 +3878,7 @@
         <v>318</v>
       </c>
       <c r="B285" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
@@ -3865,7 +3886,7 @@
         <v>319</v>
       </c>
       <c r="B286" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
@@ -3873,7 +3894,7 @@
         <v>320</v>
       </c>
       <c r="B287" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
@@ -3881,7 +3902,7 @@
         <v>321</v>
       </c>
       <c r="B288" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -3889,7 +3910,7 @@
         <v>322</v>
       </c>
       <c r="B289" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
@@ -3897,7 +3918,7 @@
         <v>323</v>
       </c>
       <c r="B290" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
@@ -3905,7 +3926,7 @@
         <v>324</v>
       </c>
       <c r="B291" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
@@ -3913,7 +3934,7 @@
         <v>325</v>
       </c>
       <c r="B292" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
@@ -3921,7 +3942,7 @@
         <v>326</v>
       </c>
       <c r="B293" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
@@ -3937,7 +3958,7 @@
         <v>328</v>
       </c>
       <c r="B295" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
@@ -3953,7 +3974,7 @@
         <v>330</v>
       </c>
       <c r="B297" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
@@ -3969,7 +3990,7 @@
         <v>333</v>
       </c>
       <c r="B299" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -3977,7 +3998,7 @@
         <v>334</v>
       </c>
       <c r="B300" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
@@ -3985,7 +4006,7 @@
         <v>335</v>
       </c>
       <c r="B301" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
@@ -3993,7 +4014,7 @@
         <v>336</v>
       </c>
       <c r="B302" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
@@ -4001,7 +4022,7 @@
         <v>337</v>
       </c>
       <c r="B303" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -4009,7 +4030,7 @@
         <v>338</v>
       </c>
       <c r="B304" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -4017,7 +4038,7 @@
         <v>339</v>
       </c>
       <c r="B305" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -4033,7 +4054,7 @@
         <v>341</v>
       </c>
       <c r="B307" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
@@ -4041,20 +4062,20 @@
         <v>342</v>
       </c>
       <c r="B308" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B309" t="s">
-        <v>343</v>
+        <v>89</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B310" t="s">
         <v>332</v>
@@ -4062,23 +4083,23 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B311" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B312" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B313" t="s">
         <v>89</v>
@@ -4086,31 +4107,31 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B314" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B315" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B316" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B317" t="s">
         <v>89</v>
@@ -4118,10 +4139,10 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
+        <v>352</v>
+      </c>
+      <c r="B318" t="s">
         <v>353</v>
-      </c>
-      <c r="B318" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -4129,7 +4150,7 @@
         <v>354</v>
       </c>
       <c r="B319" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
@@ -4137,7 +4158,7 @@
         <v>355</v>
       </c>
       <c r="B320" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
@@ -4145,7 +4166,7 @@
         <v>356</v>
       </c>
       <c r="B321" t="s">
-        <v>343</v>
+        <v>89</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
@@ -4153,7 +4174,7 @@
         <v>357</v>
       </c>
       <c r="B322" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
@@ -4161,7 +4182,7 @@
         <v>358</v>
       </c>
       <c r="B323" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
@@ -4169,7 +4190,7 @@
         <v>359</v>
       </c>
       <c r="B324" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -4177,7 +4198,7 @@
         <v>360</v>
       </c>
       <c r="B325" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
@@ -4185,7 +4206,7 @@
         <v>361</v>
       </c>
       <c r="B326" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
@@ -4193,7 +4214,7 @@
         <v>362</v>
       </c>
       <c r="B327" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
@@ -4201,7 +4222,7 @@
         <v>363</v>
       </c>
       <c r="B328" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
@@ -4209,7 +4230,7 @@
         <v>364</v>
       </c>
       <c r="B329" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
@@ -4217,7 +4238,7 @@
         <v>365</v>
       </c>
       <c r="B330" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -4233,7 +4254,7 @@
         <v>367</v>
       </c>
       <c r="B332" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
@@ -4241,7 +4262,7 @@
         <v>368</v>
       </c>
       <c r="B333" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
@@ -4249,7 +4270,7 @@
         <v>369</v>
       </c>
       <c r="B334" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
@@ -4257,7 +4278,7 @@
         <v>370</v>
       </c>
       <c r="B335" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
@@ -4265,7 +4286,7 @@
         <v>371</v>
       </c>
       <c r="B336" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
@@ -4281,7 +4302,7 @@
         <v>373</v>
       </c>
       <c r="B338" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
@@ -4289,7 +4310,7 @@
         <v>374</v>
       </c>
       <c r="B339" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
@@ -4305,7 +4326,7 @@
         <v>376</v>
       </c>
       <c r="B341" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
@@ -4330,12 +4351,59 @@
       </c>
       <c r="B344" t="s">
         <v>382</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>383</v>
+      </c>
+      <c r="B345" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>385</v>
+      </c>
+      <c r="B346" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>386</v>
+      </c>
+      <c r="B347" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>387</v>
+      </c>
+      <c r="B348" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>388</v>
+      </c>
+      <c r="B349" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>389</v>
+      </c>
+      <c r="B350" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/US/data/CBS/NFIB/Qualified Applicants for Job Openings.xlsx
+++ b/US/data/CBS/NFIB/Qualified Applicants for Job Openings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20387"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{007D733F-6483-4D5F-B1B7-5D14D01FFC54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72CDF87A-65DA-4A4E-8E1D-DF9E9F4C6800}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="18195" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="392">
   <si>
     <t>Month/Year</t>
   </si>
@@ -82,12 +82,12 @@
     <t>1994/2/1</t>
   </si>
   <si>
+    <t>1994/3/1</t>
+  </si>
+  <si>
     <t>37</t>
   </si>
   <si>
-    <t>1994/3/1</t>
-  </si>
-  <si>
     <t>1994/4/1</t>
   </si>
   <si>
@@ -130,6 +130,9 @@
     <t>1995/2/1</t>
   </si>
   <si>
+    <t>40</t>
+  </si>
+  <si>
     <t>1995/3/1</t>
   </si>
   <si>
@@ -172,9 +175,6 @@
     <t>1996/2/1</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
     <t>1996/3/1</t>
   </si>
   <si>
@@ -685,6 +685,9 @@
     <t>2009/2/1</t>
   </si>
   <si>
+    <t>22</t>
+  </si>
+  <si>
     <t>2009/3/1</t>
   </si>
   <si>
@@ -709,9 +712,6 @@
     <t>2009/8/1</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
     <t>2009/9/1</t>
   </si>
   <si>
@@ -1190,6 +1190,12 @@
   </si>
   <si>
     <t>2022/4/1</t>
+  </si>
+  <si>
+    <t>2022/5/1</t>
+  </si>
+  <si>
+    <t>59</t>
   </si>
 </sst>
 </file>
@@ -1589,7 +1595,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B350"/>
+  <dimension ref="A1:B351"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1694,15 +1700,15 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
         <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1718,7 +1724,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1726,7 +1732,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1790,12 +1796,12 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
         <v>27</v>
@@ -1803,7 +1809,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
@@ -1811,7 +1817,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
         <v>17</v>
@@ -1819,7 +1825,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
         <v>13</v>
@@ -1827,23 +1833,23 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
         <v>42</v>
-      </c>
-      <c r="B30" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
@@ -1851,15 +1857,15 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B33" t="s">
         <v>29</v>
@@ -1867,15 +1873,15 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
         <v>29</v>
@@ -1883,10 +1889,10 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1910,7 +1916,7 @@
         <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1934,7 +1940,7 @@
         <v>57</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1942,7 +1948,7 @@
         <v>58</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1982,7 +1988,7 @@
         <v>65</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1990,7 +1996,7 @@
         <v>66</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -2078,7 +2084,7 @@
         <v>79</v>
       </c>
       <c r="B60" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -2102,7 +2108,7 @@
         <v>82</v>
       </c>
       <c r="B63" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -2118,7 +2124,7 @@
         <v>84</v>
       </c>
       <c r="B65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -2126,7 +2132,7 @@
         <v>85</v>
       </c>
       <c r="B66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -2166,7 +2172,7 @@
         <v>93</v>
       </c>
       <c r="B71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -2174,7 +2180,7 @@
         <v>94</v>
       </c>
       <c r="B72" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -2262,7 +2268,7 @@
         <v>106</v>
       </c>
       <c r="B83" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -2270,7 +2276,7 @@
         <v>107</v>
       </c>
       <c r="B84" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -2294,7 +2300,7 @@
         <v>110</v>
       </c>
       <c r="B87" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -2366,7 +2372,7 @@
         <v>119</v>
       </c>
       <c r="B96" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -2390,7 +2396,7 @@
         <v>122</v>
       </c>
       <c r="B99" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -2446,7 +2452,7 @@
         <v>129</v>
       </c>
       <c r="B106" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -2462,7 +2468,7 @@
         <v>131</v>
       </c>
       <c r="B108" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -2478,7 +2484,7 @@
         <v>133</v>
       </c>
       <c r="B110" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -2558,7 +2564,7 @@
         <v>145</v>
       </c>
       <c r="B120" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -2638,7 +2644,7 @@
         <v>157</v>
       </c>
       <c r="B130" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -2654,7 +2660,7 @@
         <v>159</v>
       </c>
       <c r="B132" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -2694,7 +2700,7 @@
         <v>164</v>
       </c>
       <c r="B137" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -2726,7 +2732,7 @@
         <v>168</v>
       </c>
       <c r="B141" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -2734,7 +2740,7 @@
         <v>169</v>
       </c>
       <c r="B142" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -2742,7 +2748,7 @@
         <v>170</v>
       </c>
       <c r="B143" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -2750,7 +2756,7 @@
         <v>171</v>
       </c>
       <c r="B144" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -2782,7 +2788,7 @@
         <v>175</v>
       </c>
       <c r="B148" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -2798,7 +2804,7 @@
         <v>177</v>
       </c>
       <c r="B150" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -2846,7 +2852,7 @@
         <v>183</v>
       </c>
       <c r="B156" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -2862,7 +2868,7 @@
         <v>185</v>
       </c>
       <c r="B158" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -2886,7 +2892,7 @@
         <v>188</v>
       </c>
       <c r="B161" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -2934,7 +2940,7 @@
         <v>194</v>
       </c>
       <c r="B167" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -2942,7 +2948,7 @@
         <v>195</v>
       </c>
       <c r="B168" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -2958,7 +2964,7 @@
         <v>197</v>
       </c>
       <c r="B170" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -2966,7 +2972,7 @@
         <v>198</v>
       </c>
       <c r="B171" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -3038,7 +3044,7 @@
         <v>207</v>
       </c>
       <c r="B180" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -3070,7 +3076,7 @@
         <v>211</v>
       </c>
       <c r="B184" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -3102,7 +3108,7 @@
         <v>215</v>
       </c>
       <c r="B188" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -3134,20 +3140,20 @@
         <v>220</v>
       </c>
       <c r="B192" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B193" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B194" t="s">
         <v>219</v>
@@ -3155,7 +3161,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B195" t="s">
         <v>219</v>
@@ -3163,26 +3169,26 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B196" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B197" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B198" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -3190,7 +3196,7 @@
         <v>230</v>
       </c>
       <c r="B199" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -3214,7 +3220,7 @@
         <v>233</v>
       </c>
       <c r="B202" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -3222,7 +3228,7 @@
         <v>234</v>
       </c>
       <c r="B203" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -3230,7 +3236,7 @@
         <v>235</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -3246,7 +3252,7 @@
         <v>237</v>
       </c>
       <c r="B206" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -3254,7 +3260,7 @@
         <v>238</v>
       </c>
       <c r="B207" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -3326,7 +3332,7 @@
         <v>249</v>
       </c>
       <c r="B216" t="s">
-        <v>9</v>
+        <v>243</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -3422,7 +3428,7 @@
         <v>261</v>
       </c>
       <c r="B228" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -3486,7 +3492,7 @@
         <v>269</v>
       </c>
       <c r="B236" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -3494,7 +3500,7 @@
         <v>270</v>
       </c>
       <c r="B237" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -3518,7 +3524,7 @@
         <v>273</v>
       </c>
       <c r="B240" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -3534,7 +3540,7 @@
         <v>275</v>
       </c>
       <c r="B242" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -3582,7 +3588,7 @@
         <v>281</v>
       </c>
       <c r="B248" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -3614,7 +3620,7 @@
         <v>285</v>
       </c>
       <c r="B252" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -3630,7 +3636,7 @@
         <v>287</v>
       </c>
       <c r="B254" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -3654,7 +3660,7 @@
         <v>290</v>
       </c>
       <c r="B257" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -3670,7 +3676,7 @@
         <v>292</v>
       </c>
       <c r="B259" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
@@ -3686,7 +3692,7 @@
         <v>294</v>
       </c>
       <c r="B261" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -3710,7 +3716,7 @@
         <v>297</v>
       </c>
       <c r="B264" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -3718,7 +3724,7 @@
         <v>298</v>
       </c>
       <c r="B265" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
@@ -3742,7 +3748,7 @@
         <v>301</v>
       </c>
       <c r="B268" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -3750,7 +3756,7 @@
         <v>302</v>
       </c>
       <c r="B269" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -3798,7 +3804,7 @@
         <v>308</v>
       </c>
       <c r="B275" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -3806,7 +3812,7 @@
         <v>309</v>
       </c>
       <c r="B276" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -3830,7 +3836,7 @@
         <v>312</v>
       </c>
       <c r="B279" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
@@ -3838,7 +3844,7 @@
         <v>313</v>
       </c>
       <c r="B280" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
@@ -3902,7 +3908,7 @@
         <v>321</v>
       </c>
       <c r="B288" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -3998,7 +4004,7 @@
         <v>334</v>
       </c>
       <c r="B300" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
@@ -4022,7 +4028,7 @@
         <v>337</v>
       </c>
       <c r="B303" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -4094,7 +4100,7 @@
         <v>346</v>
       </c>
       <c r="B312" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -4190,7 +4196,7 @@
         <v>359</v>
       </c>
       <c r="B324" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -4206,7 +4212,7 @@
         <v>361</v>
       </c>
       <c r="B326" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
@@ -4230,7 +4236,7 @@
         <v>364</v>
       </c>
       <c r="B329" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
@@ -4286,7 +4292,7 @@
         <v>371</v>
       </c>
       <c r="B336" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
@@ -4382,7 +4388,7 @@
         <v>387</v>
       </c>
       <c r="B348" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
@@ -4399,11 +4405,20 @@
       </c>
       <c r="B350" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>390</v>
+      </c>
+      <c r="B351" t="s">
+        <v>391</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>